--- a/Crawling/music/crawled_data/live_bugs/live_bugs_20220427_110836.xlsx
+++ b/Crawling/music/crawled_data/live_bugs/live_bugs_20220427_110836.xlsx
@@ -21,129 +21,345 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="228">
   <x:si>
+    <x:t>우린 어떠한 별보다 빛날 거야 (이하이 X soundtrack#1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모든 날, 모든 순간 (Every day, Every Moment)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회전목마 (Feat. Zion.T, 원슈타인) (Prod. Slom)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우리들의 블루스 OST Part 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>손을 잡는다거나, 같이 걷는다거나</x:t>
+  </x:si>
+  <x:si>
+    <x:t>멜로가 체질 OST Part 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오마이걸(OH MY GIRL)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쇼미더머니 10 Episode 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>When You're Gone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그 해 우리는 OST Part.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쇼미더머니 10 Episode 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Charlie Puth(찰리 푸스)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우리들의 블루스 OST Part 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우린 어떠한 별보다 빛날 거야</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stronger (What Doesn't Kill You)</x:t>
+  </x:si>
+  <x:si>
     <x:t>봄인가 봐 (Spring Love) - SM STATION</x:t>
   </x:si>
   <x:si>
-    <x:t>Stronger (What Doesn't Kill You)</x:t>
-  </x:si>
-  <x:si>
     <x:t>별에서 온 그대 (SBS 수목드라마) OST - Part.7</x:t>
   </x:si>
   <x:si>
+    <x:t>I NEVER DIE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>별거 없던 그 하루로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MSG워너비 1집</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Love poem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AND</x:t>
+  </x:si>
+  <x:si>
+    <x:t>별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정동원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앨범</x:t>
+  </x:si>
+  <x:si>
+    <x:t>드라마</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김나영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조각집</x:t>
+  </x:si>
+  <x:si>
+    <x:t>송하예</x:t>
+  </x:si>
+  <x:si>
+    <x:t>손편지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이무진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문득</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박재범</x:t>
+  </x:si>
+  <x:si>
     <x:t>가수</x:t>
   </x:si>
   <x:si>
     <x:t>꽃 길</x:t>
   </x:si>
   <x:si>
-    <x:t>이무진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정동원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>송하예</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AND</x:t>
-  </x:si>
-  <x:si>
-    <x:t>앨범</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박재범</x:t>
-  </x:si>
-  <x:si>
-    <x:t>별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문득</x:t>
-  </x:si>
-  <x:si>
-    <x:t>드라마</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김나영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>손편지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조각집</x:t>
+    <x:t>이하이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김세정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>임창정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성시경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서랍</x:t>
+  </x:si>
+  <x:si>
+    <x:t>노을</x:t>
+  </x:si>
+  <x:si>
+    <x:t>라일락</x:t>
+  </x:si>
+  <x:si>
+    <x:t>순위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지민</x:t>
   </x:si>
   <x:si>
     <x:t>장범준</x:t>
   </x:si>
   <x:si>
+    <x:t>적재</x:t>
+  </x:si>
+  <x:si>
+    <x:t>임영웅</x:t>
+  </x:si>
+  <x:si>
+    <x:t>케이시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>O.O</x:t>
+  </x:si>
+  <x:si>
     <x:t>순순희</x:t>
   </x:si>
   <x:si>
     <x:t>곡</x:t>
   </x:si>
   <x:si>
-    <x:t>케이시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성시경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>노을</x:t>
-  </x:si>
-  <x:si>
     <x:t>신호등</x:t>
   </x:si>
   <x:si>
-    <x:t>적재</x:t>
-  </x:si>
-  <x:si>
-    <x:t>임영웅</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이하이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>O.O</x:t>
-  </x:si>
-  <x:si>
-    <x:t>순위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서랍</x:t>
-  </x:si>
-  <x:si>
-    <x:t>라일락</x:t>
-  </x:si>
-  <x:si>
-    <x:t>임창정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김세정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지민</x:t>
+    <x:t>MINO(송민호)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하이포(HIGH4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZOOM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사랑한다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>봄 to 러브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INVU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ELEVEN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seoul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나의 X에게</x:t>
+  </x:si>
+  <x:si>
+    <x:t>너를 생각해</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GAYLE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weekend</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LOVE me</x:t>
+  </x:si>
+  <x:si>
+    <x:t>듣고 싶을까</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RUN2U</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TOMBOY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>취중고백</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그대가 있기에</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사건의 지평선</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LOVE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사랑인가 봐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MY BAG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IM HERO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어제처럼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AD MARE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aespa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>abcdefu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>언제나 사랑해</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아주, 천천히</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아름다운 건</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Breathe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Savage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>넬(NELL)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원슈타인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이유(IU)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정이라고 하자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>살기 위해서</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">멀어지다 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>아지랑이꽃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bipolar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경서예지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NMIXX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바라만 본다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Justice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>니 소식2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방탄소년단</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Butter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>존재만으로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>볼빨간사춘기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(여자)아이들</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FIESTA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>STAY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10CM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Celebrity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자우림(Jaurim)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GANADARA</x:t>
   </x:si>
   <x:si>
     <x:t>비비(BIBI)</x:t>
   </x:si>
   <x:si>
-    <x:t>자우림(Jaurim)</x:t>
+    <x:t>The Prelude</x:t>
   </x:si>
   <x:si>
     <x:t>태일 (TAEIL)</x:t>
   </x:si>
   <x:si>
-    <x:t>GANADARA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The Prelude</x:t>
-  </x:si>
-  <x:si>
     <x:t>니 소식2 X 송하예</x:t>
   </x:si>
   <x:si>
@@ -156,179 +372,83 @@
     <x:t>NCT DREAM</x:t>
   </x:si>
   <x:si>
-    <x:t>별거 없던 그 하루로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I NEVER DIE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MSG워너비 1집</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Love poem</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하이포(HIGH4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MINO(송민호)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Celebrity</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기억을 걷는 시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>봄 사랑 벚꽃 말고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YENA (최예나)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김민석 (멜로망스)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제시(Jessi)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lauv(라우브)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BE'O (비오)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Off My Face</x:t>
-  </x:si>
-  <x:si>
-    <x:t>헤이즈(Heize)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bad Habits</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IVE (아이브)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sam Ryder</x:t>
-  </x:si>
-  <x:si>
-    <x:t>STAYC(스테이씨)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>‘The ReVe Festival 2022 - Feel My Rhythm’</x:t>
+    <x:t>Shawn Mendes(션 멘데스)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dreams Come True</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ed Sheeran(에드 시런)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>봄인가 봐 (Spring Love)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SMILEY (Feat. BIBI)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그 해 우리는 OST Part.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쇼미더머니 10 Episode 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우리들의 블루스 OST Part 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신사와 아가씨 OST Part.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하이라이트(Highlight)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>That's Hilarious</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Red Velvet (레드벨벳)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BIG Naughty (서동현)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Permission to Dance</x:t>
   </x:si>
   <x:si>
     <x:t>버퍼링 (Glitch Mode)</x:t>
   </x:si>
   <x:si>
-    <x:t>하이라이트(Highlight)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dreams Come True</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SMILEY (Feat. BIBI)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ed Sheeran(에드 시런)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그 해 우리는 OST Part.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>That's Hilarious</x:t>
-  </x:si>
-  <x:si>
-    <x:t>봄인가 봐 (Spring Love)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쇼미더머니 10 Episode 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우리들의 블루스 OST Part 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Red Velvet (레드벨벳)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신사와 아가씨 OST Part.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BIG Naughty (서동현)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Permission to Dance</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shawn Mendes(션 멘데스)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Charlie Puth(찰리 푸스)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우리들의 블루스 OST Part 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우리들의 블루스 OST Part 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우린 어떠한 별보다 빛날 거야</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오마이걸(OH MY GIRL)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쇼미더머니 10 Episode 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그 해 우리는 OST Part.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>손을 잡는다거나, 같이 걷는다거나</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쇼미더머니 10 Episode 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>멜로가 체질 OST Part 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>When You're Gone</x:t>
+    <x:t>MSG워너비(M.O.M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IZ*ONE(아이즈원)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우리가 헤어져야 했던 이유</x:t>
   </x:si>
   <x:si>
     <x:t>주시크 (Joosiq)</x:t>
   </x:si>
   <x:si>
+    <x:t>다정히 내 이름을 부르면</x:t>
+  </x:si>
+  <x:si>
     <x:t>Feel My Rhythm</x:t>
   </x:si>
   <x:si>
+    <x:t>폴킴(Paul Kim)</x:t>
+  </x:si>
+  <x:si>
     <x:t>GOT the beat</x:t>
   </x:si>
   <x:si>
     <x:t>In the mirror</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MSG워너비(M.O.M)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>윤하(Younha/ユンナ)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IZ*ONE(아이즈원)</x:t>
   </x:si>
   <x:si>
     <x:t>[19금]
 abcdefu</x:t>
   </x:si>
   <x:si>
-    <x:t>폴킴(Paul Kim)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다정히 내 이름을 부르면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우리가 헤어져야 했던 이유</x:t>
+    <x:t>윤하(Younha/ユンナ)</x:t>
   </x:si>
   <x:si>
     <x:t>Coldplay(콜드플레이)</x:t>
@@ -337,323 +457,229 @@
     <x:t>몬스타엑스(Monsta X)</x:t>
   </x:si>
   <x:si>
+    <x:t>SHAPE of LOVE</x:t>
+  </x:si>
+  <x:si>
     <x:t>strawberry moon</x:t>
   </x:si>
   <x:si>
-    <x:t>SHAPE of LOVE</x:t>
+    <x:t>멜로망스(MeloMance)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ˣ‿ˣ (SMiLEY)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trip:Tape #01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Light Switch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BIGBANG (빅뱅)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Counting Stars</x:t>
   </x:si>
   <x:si>
     <x:t>Goodbye, grief.</x:t>
   </x:si>
   <x:si>
-    <x:t>멜로망스(MeloMance)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ˣ‿ˣ (SMiLEY)</x:t>
+    <x:t>태연 (TAEYEON)</x:t>
   </x:si>
   <x:si>
     <x:t>에릭남(Eric Nam)</x:t>
   </x:si>
   <x:si>
-    <x:t>Light Switch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>태연 (TAEYEON)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BIGBANG (빅뱅)</x:t>
-  </x:si>
-  <x:si>
     <x:t>YOUNG-LUV.COM</x:t>
   </x:si>
   <x:si>
-    <x:t>Counting Stars</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Trip:Tape #01</x:t>
+    <x:t>The Kid LAROI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YOUNHA 6th Album Repackage 'END THEORY : Final Edition'</x:t>
+  </x:si>
+  <x:si>
+    <x:t>‘The ReVe Festival 2022 - Feel My Rhythm’</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쉬어 (Feat. MINO) (Prod. GRAY)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리무진 (Feat. MINO) (Prod. GRAY)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dreams Come True - SM STATION</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Counting Stars (Feat. Beenzino)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Butter / Permission to Dance</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사랑인가 봐 (사내맞선 OST Bonus Track)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>All 4 Nothing (I'm So In Love)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제시(Jessi)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bad Habits</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김민석 (멜로망스)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Off My Face</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IVE (아이브)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기억을 걷는 시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sam Ryder</x:t>
+  </x:si>
+  <x:si>
+    <x:t>봄 사랑 벚꽃 말고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헤이즈(Heize)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YENA (최예나)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>STAYC(스테이씨)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lauv(라우브)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BE'O (비오)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>너의 번호를 누르고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-04-27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나는 트로트가 싫어요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LOVE DIVE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blueming</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Real Love</x:t>
   </x:si>
   <x:si>
     <x:t>BLOOM*IZ</x:t>
   </x:si>
   <x:si>
-    <x:t>LOVE DIVE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>너의 번호를 누르고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Real Love</x:t>
-  </x:si>
-  <x:si>
     <x:t>As It Was</x:t>
   </x:si>
   <x:si>
-    <x:t>2022-04-27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나는 트로트가 싫어요</x:t>
-  </x:si>
-  <x:si>
     <x:t>Tiny Riot</x:t>
   </x:si>
   <x:si>
-    <x:t>Blueming</x:t>
+    <x:t>Next Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사랑은 늘 도망가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마지막 너의 인사</x:t>
   </x:si>
   <x:si>
     <x:t>With you</x:t>
   </x:si>
   <x:si>
+    <x:t>Starlight</x:t>
+  </x:si>
+  <x:si>
     <x:t>Love story</x:t>
   </x:si>
   <x:si>
-    <x:t>Next Level</x:t>
-  </x:si>
-  <x:si>
     <x:t>Dynamite</x:t>
   </x:si>
   <x:si>
+    <x:t>우리들의 블루스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wildfire</x:t>
+  </x:si>
+  <x:si>
     <x:t>Step Back</x:t>
   </x:si>
   <x:si>
-    <x:t>마지막 너의 인사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Starlight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우리들의 블루스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사랑은 늘 도망가</x:t>
-  </x:si>
-  <x:si>
     <x:t>DAYDREAM</x:t>
   </x:si>
   <x:si>
-    <x:t>Wildfire</x:t>
-  </x:si>
-  <x:si>
     <x:t>At My Worst</x:t>
   </x:si>
   <x:si>
+    <x:t>My Universe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>너의 모든 순간</x:t>
+  </x:si>
+  <x:si>
     <x:t>스물다섯, 스물하나</x:t>
   </x:si>
   <x:si>
-    <x:t>My Universe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>너의 모든 순간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LOVE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ZOOM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>취중고백</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Seoul</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RUN2U</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weekend</x:t>
-  </x:si>
-  <x:si>
-    <x:t>너를 생각해</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그대가 있기에</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LOVE me</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사랑인가 봐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사랑한다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MY BAG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ELEVEN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>듣고 싶을까</x:t>
-  </x:si>
-  <x:si>
-    <x:t>봄 to 러브</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사건의 지평선</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나의 X에게</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TOMBOY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INVU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GAYLE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Butter</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이유(IU)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(여자)아이들</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IM HERO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FIESTA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아름다운 건</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아지랑이꽃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정이라고 하자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>STAY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10CM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바라만 본다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>abcdefu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어제처럼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AD MARE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NMIXX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>니 소식2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>넬(NELL)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>존재만으로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>살기 위해서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aespa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>언제나 사랑해</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Justice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아주, 천천히</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Breathe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Savage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방탄소년단</x:t>
-  </x:si>
-  <x:si>
-    <x:t>볼빨간사춘기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원슈타인</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">멀어지다 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bipolar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경서예지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YOUNHA 6th Album Repackage 'END THEORY : Final Edition'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모든 날, 모든 순간 (Every day, Every Moment)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우린 어떠한 별보다 빛날 거야 (이하이 X soundtrack#1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회전목마 (Feat. Zion.T, 원슈타인) (Prod. Slom)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Counting Stars (Feat. Beenzino)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Butter / Permission to Dance</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사랑인가 봐 (사내맞선 OST Bonus Track)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>All 4 Nothing (I'm So In Love)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The Kid LAROI
-The Kid LAROI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리무진 (Feat. MINO) (Prod. GRAY)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쉬어 (Feat. MINO) (Prod. GRAY)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dreams Come True - SM STATION</x:t>
+    <x:t>흔들리는 꽃들 속에서 네 샴푸향이 느껴진거야</x:t>
   </x:si>
   <x:si>
     <x:t>Savage - The 1st Mini Album</x:t>
   </x:si>
   <x:si>
-    <x:t>흔들리는 꽃들 속에서 네 샴푸향이 느껴진거야</x:t>
+    <x:t>Glitch Mode - The 2nd Album</x:t>
   </x:si>
   <x:si>
     <x:t>사랑인가 봐 (사내맞선 OST 스페셜 트랙)</x:t>
   </x:si>
   <x:si>
-    <x:t>Glitch Mode - The 2nd Album</x:t>
-  </x:si>
-  <x:si>
     <x:t>Dynamite (DayTime Version)</x:t>
   </x:si>
   <x:si>
+    <x:t>Burning Up (Feat. R3HAB)</x:t>
+  </x:si>
+  <x:si>
     <x:t>다정히 내 이름을 부르면 (경서예지 x 전건호)</x:t>
   </x:si>
   <x:si>
-    <x:t>Burning Up (Feat. R3HAB)</x:t>
+    <x:t>스물다섯 스물하나 OST Part 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Justin Bieber(저스틴 비버)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Can't Control Myself</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Sun’s Gonna Rise</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스물다섯 스물하나 OST Part 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>'키스 먼저 할까요?' OST Part.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IU 5th Album 'LILAC'</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정이라고 하자 (Feat. 10CM)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INVU - The 3rd Album</x:t>
   </x:si>
   <x:si>
     <x:t>GANADARA (Feat. 아이유)</x:t>
@@ -662,49 +688,22 @@
     <x:t>사랑인가 봐 (Acoustic Ver.)</x:t>
   </x:si>
   <x:si>
-    <x:t>The Sun’s Gonna Rise</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IU 5th Album 'LILAC'</x:t>
+    <x:t>2step (feat. Lil Baby)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>봄여름가을겨울 (Still Life)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스물다섯 스물하나 OST Part 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kelly Clarkson(켈리 클락슨)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조영수 리메이크 프로젝트 Part.2</x:t>
   </x:si>
   <x:si>
     <x:t>Harry Styles(해리 스타일스)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2step (feat. Lil Baby)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>'키스 먼저 할까요?' OST Part.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정이라고 하자 (Feat. 10CM)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>봄여름가을겨울 (Still Life)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Can't Control Myself</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Justin Bieber(저스틴 비버)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스물다섯 스물하나 OST Part 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kelly Clarkson(켈리 클락슨)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스물다섯 스물하나 OST Part 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조영수 리메이크 프로젝트 Part.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INVU - The 3rd Album</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스물다섯 스물하나 OST Part 1</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1500,8 +1499,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:E101"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D1" activeCellId="0" sqref="D1:D1048576"/>
+    <x:sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="D47" activeCellId="0" sqref="D47:D47"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -1511,415 +1510,415 @@
   <x:sheetData>
     <x:row r="1" spans="1:5">
       <x:c r="A1" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
-        <x:v>30</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D1" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E1" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5">
       <x:c r="A2" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B2" s="2">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>118</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D2" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="E2" s="2" t="s">
-        <x:v>118</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B3" s="2">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>219</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>113</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E3" s="2" t="s">
-        <x:v>219</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
       <x:c r="A4" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B4" s="2">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>158</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
-        <x:v>163</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E4" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B5" s="2">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>155</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>170</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="A6" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B6" s="2">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>142</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D6" s="2" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="E6" s="2" t="s">
         <x:v>56</x:v>
-      </x:c>
-      <x:c r="E6" s="2" t="s">
-        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B7" s="2">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E7" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="A8" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B8" s="2">
         <x:v>7</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>157</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E8" s="2" t="s">
-        <x:v>157</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
       <x:c r="A9" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B9" s="2">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>150</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E9" s="2" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B10" s="2">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>144</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>187</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E10" s="2" t="s">
-        <x:v>144</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B11" s="2">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E11" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="A12" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B12" s="2">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>149</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E12" s="2" t="s">
-        <x:v>149</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
       <x:c r="A13" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B13" s="2">
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>141</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E13" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
       <x:c r="A14" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B14" s="2">
         <x:v>13</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>211</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E14" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
       <x:c r="A15" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B15" s="2">
         <x:v>14</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>152</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>163</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E15" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
       <x:c r="A16" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B16" s="2">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E16" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5">
       <x:c r="A17" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B17" s="2">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
-        <x:v>187</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E17" s="2" t="s">
-        <x:v>144</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5">
       <x:c r="A18" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B18" s="2">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>153</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="E18" s="2" t="s">
-        <x:v>153</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5">
       <x:c r="A19" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B19" s="2">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E19" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5">
       <x:c r="A20" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B20" s="2">
         <x:v>19</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>159</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E20" s="2" t="s">
-        <x:v>226</x:v>
+        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:5">
       <x:c r="A21" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B21" s="2">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>131</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E21" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5">
       <x:c r="A22" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B22" s="2">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>133</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="D22" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E22" s="2" t="s">
-        <x:v>164</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:5">
       <x:c r="A23" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B23" s="2">
         <x:v>22</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>145</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E23" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5">
       <x:c r="A24" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B24" s="2">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E24" s="2" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5">
       <x:c r="A25" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B25" s="2">
         <x:v>24</x:v>
@@ -1928,619 +1927,619 @@
         <x:v>218</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E25" s="2" t="s">
-        <x:v>168</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:5">
       <x:c r="A26" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B26" s="2">
         <x:v>25</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>143</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="E26" s="2" t="s">
-        <x:v>143</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:5">
       <x:c r="A27" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B27" s="2">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>154</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E27" s="2" t="s">
-        <x:v>154</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:5">
       <x:c r="A28" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B28" s="2">
         <x:v>27</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>199</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E28" s="2" t="s">
-        <x:v>199</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:5">
       <x:c r="A29" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B29" s="2">
         <x:v>28</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>148</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D29" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E29" s="2" t="s">
-        <x:v>148</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:5">
       <x:c r="A30" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B30" s="2">
         <x:v>29</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>156</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D30" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E30" s="2" t="s">
-        <x:v>192</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:5">
       <x:c r="A31" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B31" s="2">
         <x:v>30</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D31" s="2" t="s">
-        <x:v>162</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E31" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:5">
       <x:c r="A32" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B32" s="2">
         <x:v>31</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>134</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D32" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E32" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:5">
       <x:c r="A33" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B33" s="2">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>146</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D33" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E33" s="2" t="s">
-        <x:v>146</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:5">
       <x:c r="A34" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B34" s="2">
         <x:v>33</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="D34" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E34" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:5">
       <x:c r="A35" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B35" s="2">
         <x:v>34</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>147</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D35" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E35" s="2" t="s">
-        <x:v>147</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:5">
       <x:c r="A36" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B36" s="2">
         <x:v>35</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D36" s="2" t="s">
-        <x:v>215</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="E36" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:5">
       <x:c r="A37" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B37" s="2">
         <x:v>36</x:v>
       </x:c>
       <x:c r="C37" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D37" s="2" t="s">
-        <x:v>162</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E37" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:5">
       <x:c r="A38" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B38" s="2">
         <x:v>37</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D38" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E38" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:5">
       <x:c r="A39" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B39" s="2">
         <x:v>38</x:v>
       </x:c>
       <x:c r="C39" s="2" t="s">
-        <x:v>119</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D39" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E39" s="2" t="s">
-        <x:v>119</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:5">
       <x:c r="A40" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B40" s="2">
         <x:v>39</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D40" s="2" t="s">
-        <x:v>223</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="E40" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:5">
       <x:c r="A41" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B41" s="2">
         <x:v>40</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>216</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="D41" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E41" s="2" t="s">
-        <x:v>216</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:5">
       <x:c r="A42" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B42" s="2">
         <x:v>41</x:v>
       </x:c>
       <x:c r="C42" s="2" t="s">
-        <x:v>151</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D42" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E42" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:5">
       <x:c r="A43" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B43" s="2">
         <x:v>42</x:v>
       </x:c>
       <x:c r="C43" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D43" s="2" t="s">
-        <x:v>160</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E43" s="2" t="s">
-        <x:v>172</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:5">
       <x:c r="A44" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B44" s="2">
         <x:v>43</x:v>
       </x:c>
       <x:c r="C44" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D44" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E44" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:5">
       <x:c r="A45" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B45" s="2">
         <x:v>44</x:v>
       </x:c>
       <x:c r="C45" s="2" t="s">
-        <x:v>178</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D45" s="2" t="s">
-        <x:v>188</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E45" s="2" t="s">
-        <x:v>222</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:5">
       <x:c r="A46" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B46" s="2">
         <x:v>45</x:v>
       </x:c>
       <x:c r="C46" s="2" t="s">
-        <x:v>169</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D46" s="2" t="s">
-        <x:v>200</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="E46" s="2" t="s">
-        <x:v>169</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:5">
       <x:c r="A47" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B47" s="2">
         <x:v>46</x:v>
       </x:c>
       <x:c r="C47" s="2" t="s">
-        <x:v>181</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D47" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E47" s="2" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:5">
       <x:c r="A48" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B48" s="2">
         <x:v>47</x:v>
       </x:c>
       <x:c r="C48" s="2" t="s">
-        <x:v>135</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="D48" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E48" s="2" t="s">
-        <x:v>135</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:5">
       <x:c r="A49" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B49" s="2">
         <x:v>48</x:v>
       </x:c>
       <x:c r="C49" s="2" t="s">
-        <x:v>128</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D49" s="2" t="s">
-        <x:v>180</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E49" s="2" t="s">
-        <x:v>128</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:5">
       <x:c r="A50" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B50" s="2">
         <x:v>49</x:v>
       </x:c>
       <x:c r="C50" s="2" t="s">
-        <x:v>111</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D50" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E50" s="2" t="s">
-        <x:v>111</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:5">
       <x:c r="A51" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B51" s="2">
         <x:v>50</x:v>
       </x:c>
       <x:c r="C51" s="2" t="s">
-        <x:v>205</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D51" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E51" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:5">
       <x:c r="A52" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B52" s="2">
         <x:v>51</x:v>
       </x:c>
       <x:c r="C52" s="2" t="s">
-        <x:v>161</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D52" s="2" t="s">
-        <x:v>186</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E52" s="2" t="s">
-        <x:v>161</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:5">
       <x:c r="A53" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B53" s="2">
         <x:v>52</x:v>
       </x:c>
       <x:c r="C53" s="2" t="s">
-        <x:v>138</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="D53" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E53" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:5">
       <x:c r="A54" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B54" s="2">
         <x:v>53</x:v>
       </x:c>
       <x:c r="C54" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D54" s="2" t="s">
-        <x:v>113</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E54" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:5">
       <x:c r="A55" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B55" s="2">
         <x:v>54</x:v>
       </x:c>
       <x:c r="C55" s="2" t="s">
-        <x:v>132</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D55" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E55" s="2" t="s">
-        <x:v>227</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:5">
       <x:c r="A56" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B56" s="2">
         <x:v>55</x:v>
       </x:c>
       <x:c r="C56" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D56" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E56" s="2" t="s">
-        <x:v>174</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:5">
       <x:c r="A57" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B57" s="2">
         <x:v>56</x:v>
       </x:c>
       <x:c r="C57" s="2" t="s">
-        <x:v>136</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D57" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E57" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:5">
       <x:c r="A58" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B58" s="2">
         <x:v>57</x:v>
       </x:c>
       <x:c r="C58" s="2" t="s">
-        <x:v>184</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D58" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E58" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:5">
       <x:c r="A59" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B59" s="2">
         <x:v>58</x:v>
       </x:c>
       <x:c r="C59" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D59" s="2" t="s">
-        <x:v>162</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E59" s="2" t="s">
-        <x:v>214</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:5">
       <x:c r="A60" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B60" s="2">
         <x:v>59</x:v>
       </x:c>
       <x:c r="C60" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D60" s="2" t="s">
-        <x:v>186</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E60" s="2" t="s">
-        <x:v>197</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:5">
       <x:c r="A61" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B61" s="2">
         <x:v>60</x:v>
       </x:c>
       <x:c r="C61" s="2" t="s">
-        <x:v>129</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="D61" s="2" t="s">
-        <x:v>186</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E61" s="2" t="s">
         <x:v>208</x:v>
@@ -2548,271 +2547,271 @@
     </x:row>
     <x:row r="62" spans="1:5">
       <x:c r="A62" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B62" s="2">
         <x:v>61</x:v>
       </x:c>
       <x:c r="C62" s="2" t="s">
-        <x:v>166</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D62" s="2" t="s">
-        <x:v>187</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E62" s="2" t="s">
-        <x:v>144</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:5">
       <x:c r="A63" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B63" s="2">
         <x:v>62</x:v>
       </x:c>
       <x:c r="C63" s="2" t="s">
-        <x:v>173</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D63" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E63" s="2" t="s">
-        <x:v>173</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:5">
       <x:c r="A64" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B64" s="2">
         <x:v>63</x:v>
       </x:c>
       <x:c r="C64" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D64" s="2" t="s">
-        <x:v>170</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E64" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:5">
       <x:c r="A65" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B65" s="2">
         <x:v>64</x:v>
       </x:c>
       <x:c r="C65" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D65" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E65" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:5">
       <x:c r="A66" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B66" s="2">
         <x:v>65</x:v>
       </x:c>
       <x:c r="C66" s="2" t="s">
-        <x:v>130</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="D66" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E66" s="2" t="s">
-        <x:v>130</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:5">
       <x:c r="A67" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B67" s="2">
         <x:v>66</x:v>
       </x:c>
       <x:c r="C67" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D67" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E67" s="2" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:5">
       <x:c r="A68" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B68" s="2">
         <x:v>67</x:v>
       </x:c>
       <x:c r="C68" s="2" t="s">
-        <x:v>212</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D68" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E68" s="2" t="s">
-        <x:v>198</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:5">
       <x:c r="A69" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B69" s="2">
         <x:v>68</x:v>
       </x:c>
       <x:c r="C69" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D69" s="2" t="s">
-        <x:v>187</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E69" s="2" t="s">
-        <x:v>144</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:5">
       <x:c r="A70" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B70" s="2">
         <x:v>69</x:v>
       </x:c>
       <x:c r="C70" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="D70" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E70" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:5">
       <x:c r="A71" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B71" s="2">
         <x:v>70</x:v>
       </x:c>
       <x:c r="C71" s="2" t="s">
-        <x:v>185</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D71" s="2" t="s">
-        <x:v>180</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E71" s="2" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:5">
       <x:c r="A72" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B72" s="2">
         <x:v>71</x:v>
       </x:c>
       <x:c r="C72" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D72" s="2" t="s">
-        <x:v>180</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E72" s="2" t="s">
-        <x:v>203</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:5">
       <x:c r="A73" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B73" s="2">
         <x:v>72</x:v>
       </x:c>
       <x:c r="C73" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D73" s="2" t="s">
-        <x:v>162</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E73" s="2" t="s">
-        <x:v>214</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:5">
       <x:c r="A74" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B74" s="2">
         <x:v>73</x:v>
       </x:c>
       <x:c r="C74" s="2" t="s">
-        <x:v>139</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D74" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E74" s="2" t="s">
-        <x:v>139</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:5">
       <x:c r="A75" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B75" s="2">
         <x:v>74</x:v>
       </x:c>
       <x:c r="C75" s="2" t="s">
-        <x:v>195</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D75" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E75" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:5">
       <x:c r="A76" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B76" s="2">
         <x:v>75</x:v>
       </x:c>
       <x:c r="C76" s="2" t="s">
-        <x:v>179</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D76" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E76" s="2" t="s">
-        <x:v>179</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:5">
       <x:c r="A77" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B77" s="2">
         <x:v>76</x:v>
       </x:c>
       <x:c r="C77" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D77" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E77" s="2">
         <x:v>0</x:v>
@@ -2820,414 +2819,414 @@
     </x:row>
     <x:row r="78" spans="1:5">
       <x:c r="A78" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B78" s="2">
         <x:v>77</x:v>
       </x:c>
       <x:c r="C78" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D78" s="2" t="s">
-        <x:v>187</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E78" s="2" t="s">
-        <x:v>144</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:5">
       <x:c r="A79" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B79" s="2">
         <x:v>78</x:v>
       </x:c>
       <x:c r="C79" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D79" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E79" s="2" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:5">
       <x:c r="A80" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B80" s="2">
         <x:v>79</x:v>
       </x:c>
       <x:c r="C80" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D80" s="2" t="s">
-        <x:v>162</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E80" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:5">
       <x:c r="A81" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B81" s="2">
         <x:v>80</x:v>
       </x:c>
       <x:c r="C81" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D81" s="2" t="s">
-        <x:v>221</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E81" s="2" t="s">
-        <x:v>182</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:5">
       <x:c r="A82" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B82" s="2">
         <x:v>81</x:v>
       </x:c>
       <x:c r="C82" s="2" t="s">
-        <x:v>220</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D82" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E82" s="2" t="s">
-        <x:v>220</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:5">
       <x:c r="A83" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B83" s="2">
         <x:v>82</x:v>
       </x:c>
       <x:c r="C83" s="2" t="s">
-        <x:v>171</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D83" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E83" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:5">
       <x:c r="A84" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B84" s="2">
         <x:v>83</x:v>
       </x:c>
       <x:c r="C84" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D84" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E84" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:5">
       <x:c r="A85" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B85" s="2">
         <x:v>84</x:v>
       </x:c>
       <x:c r="C85" s="2" t="s">
-        <x:v>167</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D85" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E85" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:5">
       <x:c r="A86" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B86" s="2">
         <x:v>85</x:v>
       </x:c>
       <x:c r="C86" s="2" t="s">
-        <x:v>137</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="D86" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E86" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:5">
       <x:c r="A87" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B87" s="2">
         <x:v>86</x:v>
       </x:c>
       <x:c r="C87" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D87" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E87" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:5">
       <x:c r="A88" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B88" s="2">
         <x:v>87</x:v>
       </x:c>
       <x:c r="C88" s="2" t="s">
-        <x:v>140</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="D88" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E88" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:5">
       <x:c r="A89" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B89" s="2">
         <x:v>88</x:v>
       </x:c>
       <x:c r="C89" s="2" t="s">
-        <x:v>202</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D89" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E89" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:5">
       <x:c r="A90" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B90" s="2">
         <x:v>89</x:v>
       </x:c>
       <x:c r="C90" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D90" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E90" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:5">
       <x:c r="A91" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B91" s="2">
         <x:v>90</x:v>
       </x:c>
       <x:c r="C91" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D91" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E91" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:5">
       <x:c r="A92" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B92" s="2">
         <x:v>91</x:v>
       </x:c>
       <x:c r="C92" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="D92" s="2" t="s">
-        <x:v>177</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E92" s="2" t="s">
-        <x:v>189</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:5">
       <x:c r="A93" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B93" s="2">
         <x:v>92</x:v>
       </x:c>
       <x:c r="C93" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D93" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E93" s="2" t="s">
-        <x:v>116</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:5">
       <x:c r="A94" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B94" s="2">
         <x:v>93</x:v>
       </x:c>
       <x:c r="C94" s="2" t="s">
-        <x:v>201</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D94" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E94" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:5">
       <x:c r="A95" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B95" s="2">
         <x:v>94</x:v>
       </x:c>
       <x:c r="C95" s="2" t="s">
-        <x:v>183</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D95" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E95" s="2" t="s">
-        <x:v>224</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:5">
       <x:c r="A96" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B96" s="2">
         <x:v>95</x:v>
       </x:c>
       <x:c r="C96" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D96" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E96" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:5">
       <x:c r="A97" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B97" s="2">
         <x:v>96</x:v>
       </x:c>
       <x:c r="C97" s="2" t="s">
-        <x:v>196</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="D97" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E97" s="2" t="s">
-        <x:v>115</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:5">
       <x:c r="A98" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B98" s="2">
         <x:v>97</x:v>
       </x:c>
       <x:c r="C98" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D98" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E98" s="2" t="s">
-        <x:v>207</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:5">
       <x:c r="A99" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B99" s="2">
         <x:v>98</x:v>
       </x:c>
       <x:c r="C99" s="2" t="s">
-        <x:v>176</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D99" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E99" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:5">
       <x:c r="A100" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B100" s="2">
         <x:v>99</x:v>
       </x:c>
       <x:c r="C100" s="2" t="s">
-        <x:v>165</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D100" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E100" s="2" t="s">
-        <x:v>117</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:5">
       <x:c r="A101" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B101" s="2">
         <x:v>100</x:v>
       </x:c>
       <x:c r="C101" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D101" s="2" t="s">
-        <x:v>110</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E101" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/Crawling/music/crawled_data/live_bugs/live_bugs_20220427_110836.xlsx
+++ b/Crawling/music/crawled_data/live_bugs/live_bugs_20220427_110836.xlsx
@@ -19,7 +19,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="231">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="230">
+  <x:si>
+    <x:t>YOUNHA 6th Album Repackage 'END THEORY : Final Edition'</x:t>
+  </x:si>
+  <x:si>
+    <x:t>‘The ReVe Festival 2022 - Feel My Rhythm’</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우린 어떠한 별보다 빛날 거야 (이하이 X soundtrack#1)</x:t>
+  </x:si>
   <x:si>
     <x:t>회전목마 (Feat. Zion.T, 원슈타인) (Prod. Slom)</x:t>
   </x:si>
@@ -27,241 +36,535 @@
     <x:t>모든 날, 모든 순간 (Every day, Every Moment)</x:t>
   </x:si>
   <x:si>
+    <x:t>Shawn Mendes(션 멘데스)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그 해 우리는 OST Part.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쇼미더머니 10 Episode 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우리들의 블루스 OST Part 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쇼미더머니 10 Episode 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그 해 우리는 OST Part.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쇼미더머니 10 Episode 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우리들의 블루스 OST Part 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우리들의 블루스 OST Part 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신사와 아가씨 OST Part.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>멜로가 체질 OST Part 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tiny Riot</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step Back</x:t>
+  </x:si>
+  <x:si>
+    <x:t>My Universe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>봄 사랑 벚꽃 말고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>너의 모든 순간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IVE (아이브)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YENA (최예나)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기억을 걷는 시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김민석 (멜로망스)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>STAYC(스테이씨)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>At My Worst</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나는 트로트가 싫어요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BE'O (비오)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bad Habits</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Off My Face</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Celebrity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제시(Jessi)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blueming</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lauv(라우브)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sam Ryder</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자우림(Jaurim)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>태일 (TAEIL)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I NEVER DIE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GANADARA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헤이즈(Heize)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하이포(HIGH4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Love poem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>별거 없던 그 하루로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pink Sweat$</x:t>
+  </x:si>
+  <x:si>
+    <x:t>니 소식2 X 송하예</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MINO(송민호)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비비(BIBI)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NCT DREAM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sokodomo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스물다섯, 스물하나</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Starlight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사랑은 늘 도망가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wildfire</x:t>
+  </x:si>
+  <x:si>
+    <x:t>As It Was</x:t>
+  </x:si>
+  <x:si>
+    <x:t>너의 번호를 누르고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Next Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DAYDREAM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BLOOM*IZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Prelude</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MSG워너비 1집</x:t>
+  </x:si>
+  <x:si>
     <x:t>Dynamite</x:t>
   </x:si>
   <x:si>
-    <x:t>우린 어떠한 별보다 빛날 거야 (이하이 X soundtrack#1)</x:t>
-  </x:si>
-  <x:si>
     <x:t>LOVE DIVE</x:t>
   </x:si>
   <x:si>
+    <x:t>우리들의 블루스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>With you</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Love story</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마지막 너의 인사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Real Love</x:t>
+  </x:si>
+  <x:si>
     <x:t>2022-04-27</x:t>
   </x:si>
   <x:si>
-    <x:t>마지막 너의 인사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>With you</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우리들의 블루스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Love story</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Real Love</x:t>
-  </x:si>
-  <x:si>
-    <x:t>‘The ReVe Festival 2022 - Feel My Rhythm’</x:t>
+    <x:t>장범준</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이하이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>손편지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성시경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정동원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>임영웅</x:t>
+  </x:si>
+  <x:si>
+    <x:t>=</x:t>
+  </x:si>
+  <x:si>
+    <x:t>노을</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박재범</x:t>
+  </x:si>
+  <x:si>
+    <x:t>순순희</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신호등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김나영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>라일락</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>송하예</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조각집</x:t>
+  </x:si>
+  <x:si>
+    <x:t>케이시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이무진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적재</x:t>
+  </x:si>
+  <x:si>
+    <x:t>순위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김세정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>임창정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AND</x:t>
+  </x:si>
+  <x:si>
+    <x:t>O.O</x:t>
+  </x:si>
+  <x:si>
+    <x:t>별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문득</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서랍</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지민</x:t>
+  </x:si>
+  <x:si>
+    <x:t>곡</x:t>
+  </x:si>
+  <x:si>
+    <x:t>꽃 길</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앨범</x:t>
   </x:si>
   <x:si>
     <x:t>사이트</x:t>
   </x:si>
   <x:si>
-    <x:t>가수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>곡</x:t>
-  </x:si>
-  <x:si>
-    <x:t>앨범</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지민</x:t>
-  </x:si>
-  <x:si>
     <x:t>날짜</x:t>
   </x:si>
   <x:si>
-    <x:t>서랍</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문득</x:t>
-  </x:si>
-  <x:si>
     <x:t>드라마</x:t>
   </x:si>
   <x:si>
-    <x:t>꽃 길</x:t>
-  </x:si>
-  <x:si>
-    <x:t>O.O</x:t>
-  </x:si>
-  <x:si>
-    <x:t>라일락</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AND</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>노을</x:t>
-  </x:si>
-  <x:si>
-    <x:t>순위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신호등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박재범</x:t>
-  </x:si>
-  <x:si>
-    <x:t>임영웅</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장범준</x:t>
-  </x:si>
-  <x:si>
-    <x:t>순순희</x:t>
-  </x:si>
-  <x:si>
-    <x:t>송하예</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이하이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>손편지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정동원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김나영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>케이시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이무진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김세정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>임창정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적재</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조각집</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성시경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>=</x:t>
+    <x:t>손을 잡는다거나, 같이 걷는다거나</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dreams Come True</x:t>
   </x:si>
   <x:si>
     <x:t>SMILEY (Feat. BIBI)</x:t>
   </x:si>
   <x:si>
+    <x:t>봄인가 봐 (Spring Love)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>버퍼링 (Glitch Mode)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>That's Hilarious</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하이라이트(Highlight)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Charlie Puth(찰리 푸스)</x:t>
+  </x:si>
+  <x:si>
     <x:t>우린 어떠한 별보다 빛날 거야</x:t>
   </x:si>
   <x:si>
+    <x:t>오마이걸(OH MY GIRL)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BIG Naughty (서동현)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ed Sheeran(에드 시런)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Permission to Dance</x:t>
+  </x:si>
+  <x:si>
+    <x:t>When You're Gone</x:t>
+  </x:si>
+  <x:si>
     <x:t>Red Velvet (레드벨벳)</x:t>
   </x:si>
   <x:si>
-    <x:t>오마이걸(OH MY GIRL)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BIG Naughty (서동현)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>That's Hilarious</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ed Sheeran(에드 시런)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Permission to Dance</x:t>
-  </x:si>
-  <x:si>
-    <x:t>When You're Gone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하이라이트(Highlight)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>버퍼링 (Glitch Mode)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Charlie Puth(찰리 푸스)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dreams Come True</x:t>
-  </x:si>
-  <x:si>
-    <x:t>손을 잡는다거나, 같이 걷는다거나</x:t>
-  </x:si>
-  <x:si>
-    <x:t>봄인가 봐 (Spring Love)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>멜로가 체질 OST Part 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쇼미더머니 10 Episode 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쇼미더머니 10 Episode 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shawn Mendes(션 멘데스)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그 해 우리는 OST Part.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그 해 우리는 OST Part.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우리들의 블루스 OST Part 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우리들의 블루스 OST Part 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우리들의 블루스 OST Part 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신사와 아가씨 OST Part.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쇼미더머니 10 Episode 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>너의 번호를 누르고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스물다섯, 스물하나</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Starlight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>As It Was</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Next Level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DAYDREAM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wildfire</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사랑은 늘 도망가</x:t>
+    <x:t>봄인가 봐 (Spring Love) - SM STATION</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stronger (What Doesn't Kill You)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>별에서 온 그대 (SBS 수목드라마) OST - Part.7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쉬어 (Feat. MINO) (Prod. GRAY)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사랑인가 봐 (사내맞선 OST Bonus Track)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>All 4 Nothing (I'm So In Love)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dreams Come True - SM STATION</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Butter / Permission to Dance</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Counting Stars (Feat. Beenzino)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리무진 (Feat. MINO) (Prod. GRAY)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ELEVEN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RUN2U</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MY BAG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LOVE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>듣고 싶을까</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INVU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LOVE me</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seoul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weekend</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TOMBOY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사랑인가 봐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZOOM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>너를 생각해</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바라만 본다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>취중고백</x:t>
+  </x:si>
+  <x:si>
+    <x:t>abcdefu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(여자)아이들</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Butter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어제처럼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사랑한다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>존재만으로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IM HERO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경서예지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NMIXX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Savage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Justice</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">멀어지다 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>그대가 있기에</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bipolar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아름다운 건</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bugs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AD MARE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FIESTA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사건의 지평선</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Breathe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나의 X에게</x:t>
+  </x:si>
+  <x:si>
+    <x:t>봄 to 러브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10CM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아지랑이꽃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원슈타인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정이라고 하자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아주, 천천히</x:t>
+  </x:si>
+  <x:si>
+    <x:t>넬(NELL)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방탄소년단</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aespa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이유(IU)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GAYLE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>볼빨간사춘기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>STAY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>니 소식2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>언제나 사랑해</x:t>
+  </x:si>
+  <x:si>
+    <x:t>살기 위해서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Light Switch</x:t>
   </x:si>
   <x:si>
     <x:t>MSG워너비(M.O.M)</x:t>
@@ -270,449 +573,142 @@
     <x:t>다정히 내 이름을 부르면</x:t>
   </x:si>
   <x:si>
-    <x:t>Light Switch</x:t>
-  </x:si>
-  <x:si>
     <x:t>우리가 헤어져야 했던 이유</x:t>
   </x:si>
   <x:si>
+    <x:t>멜로망스(MeloMance)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>태연 (TAEYEON)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IZ*ONE(아이즈원)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주시크 (Joosiq)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goodbye, grief.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In the mirror</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Counting Stars</x:t>
+  </x:si>
+  <x:si>
     <x:t>BIGBANG (빅뱅)</x:t>
   </x:si>
   <x:si>
+    <x:t>Feel My Rhythm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Coldplay(콜드플레이)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GOT the beat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YOUNG-LUV.COM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trip:Tape #01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Kid LAROI</x:t>
+  </x:si>
+  <x:si>
     <x:t>몬스타엑스(Monsta X)</x:t>
   </x:si>
   <x:si>
-    <x:t>Feel My Rhythm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[19금]
-abcdefu</x:t>
-  </x:si>
-  <x:si>
     <x:t>폴킴(Paul Kim)</x:t>
   </x:si>
   <x:si>
-    <x:t>Coldplay(콜드플레이)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>멜로망스(MeloMance)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>태연 (TAEYEON)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IZ*ONE(아이즈원)</x:t>
+    <x:t>SHAPE of LOVE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strawberry moon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에릭남(Eric Nam)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ˣ‿ˣ (SMiLEY)</x:t>
   </x:si>
   <x:si>
     <x:t>윤하(Younha/ユンナ)</x:t>
   </x:si>
   <x:si>
-    <x:t>주시크 (Joosiq)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The Kid LAROI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strawberry moon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GOT the beat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In the mirror</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에릭남(Eric Nam)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goodbye, grief.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YOUNG-LUV.COM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ˣ‿ˣ (SMiLEY)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Trip:Tape #01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Counting Stars</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SHAPE of LOVE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>봄인가 봐 (Spring Love) - SM STATION</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stronger (What Doesn't Kill You)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>별에서 온 그대 (SBS 수목드라마) OST - Part.7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YOUNHA 6th Album Repackage 'END THEORY : Final Edition'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>All 4 Nothing (I'm So In Love)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리무진 (Feat. MINO) (Prod. GRAY)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쉬어 (Feat. MINO) (Prod. GRAY)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Counting Stars (Feat. Beenzino)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사랑인가 봐 (사내맞선 OST Bonus Track)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Butter / Permission to Dance</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dreams Come True - SM STATION</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tiny Riot</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step Back</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나는 트로트가 싫어요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>At My Worst</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Celebrity</x:t>
-  </x:si>
-  <x:si>
-    <x:t>My Universe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blueming</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Off My Face</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bad Habits</x:t>
-  </x:si>
-  <x:si>
-    <x:t>봄 사랑 벚꽃 말고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제시(Jessi)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>너의 모든 순간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BE'O (비오)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기억을 걷는 시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IVE (아이브)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>STAYC(스테이씨)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YENA (최예나)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김민석 (멜로망스)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lauv(라우브)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>헤이즈(Heize)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비비(BIBI)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sokodomo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MINO(송민호)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하이포(HIGH4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sam Ryder</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자우림(Jaurim)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>태일 (TAEIL)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pink Sweat$</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I NEVER DIE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GANADARA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NCT DREAM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Love poem</x:t>
-  </x:si>
-  <x:si>
-    <x:t>별거 없던 그 하루로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>니 소식2 X 송하예</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MSG워너비 1집</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The Prelude</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BLOOM*IZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LOVE me</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INVU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Seoul</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ZOOM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RUN2U</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ELEVEN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TOMBOY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사랑인가 봐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weekend</x:t>
-  </x:si>
-  <x:si>
-    <x:t>듣고 싶을까</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LOVE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>너를 생각해</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MY BAG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사랑한다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>존재만으로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bugs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>봄 to 러브</x:t>
-  </x:si>
-  <x:si>
-    <x:t>취중고백</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그대가 있기에</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사건의 지평선</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나의 X에게</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Butter</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Breathe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아름다운 건</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방탄소년단</x:t>
-  </x:si>
-  <x:si>
-    <x:t>넬(NELL)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어제처럼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Savage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10CM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아지랑이꽃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원슈타인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아주, 천천히</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정이라고 하자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AD MARE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바라만 본다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>abcdefu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IM HERO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FIESTA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(여자)아이들</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경서예지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NMIXX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Justice</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">멀어지다 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bipolar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>살기 위해서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>니 소식2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이유(IU)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GAYLE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aespa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>볼빨간사춘기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>STAY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>언제나 사랑해</x:t>
+    <x:t>다정히 내 이름을 부르면 (경서예지 x 전건호)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Burning Up (Feat. R3HAB)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Savage - The 1st Mini Album</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Glitch Mode - The 2nd Album</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사랑인가 봐 (사내맞선 OST 스페셜 트랙)</x:t>
   </x:si>
   <x:si>
     <x:t>흔들리는 꽃들 속에서 네 샴푸향이 느껴진거야</x:t>
   </x:si>
   <x:si>
-    <x:t>다정히 내 이름을 부르면 (경서예지 x 전건호)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Burning Up (Feat. R3HAB)</x:t>
-  </x:si>
-  <x:si>
     <x:t>Dynamite (DayTime Version)</x:t>
   </x:si>
   <x:si>
-    <x:t>Glitch Mode - The 2nd Album</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Savage - The 1st Mini Album</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사랑인가 봐 (사내맞선 OST 스페셜 트랙)</x:t>
+    <x:t>GANADARA (Feat. 아이유)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Sun’s Gonna Rise</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스물다섯 스물하나 OST Part 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사랑인가 봐 (Acoustic Ver.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>'키스 먼저 할까요?' OST Part.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IU 5th Album 'LILAC'</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INVU - The 3rd Album</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정이라고 하자 (Feat. 10CM)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조영수 리메이크 프로젝트 Part.2</x:t>
   </x:si>
   <x:si>
     <x:t>스물다섯 스물하나 OST Part 3</x:t>
   </x:si>
   <x:si>
+    <x:t>2step (feat. Lil Baby)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Harry Styles(해리 스타일스)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kelly Clarkson(켈리 클락슨)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Can't Control Myself</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스물다섯 스물하나 OST Part 4</x:t>
+  </x:si>
+  <x:si>
     <x:t>봄여름가을겨울 (Still Life)</x:t>
   </x:si>
   <x:si>
-    <x:t>GANADARA (Feat. 아이유)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The Sun’s Gonna Rise</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정이라고 하자 (Feat. 10CM)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>'키스 먼저 할까요?' OST Part.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사랑인가 봐 (Acoustic Ver.)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Can't Control Myself</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스물다섯 스물하나 OST Part 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조영수 리메이크 프로젝트 Part.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스물다섯 스물하나 OST Part 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IU 5th Album 'LILAC'</x:t>
-  </x:si>
-  <x:si>
     <x:t>Justin Bieber(저스틴 비버)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INVU - The 3rd Album</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2step (feat. Lil Baby)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Harry Styles(해리 스타일스)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kelly Clarkson(켈리 클락슨)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -804,7 +800,7 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1505,2034 +1501,2037 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:F101"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="F78" activeCellId="0" sqref="F78:F78"/>
+    <x:sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="D43" activeCellId="0" sqref="D43:D43"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="4" max="4" width="40.2421875" bestFit="1" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6">
       <x:c r="A1" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D1" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E1" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F1" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C2" s="1">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E2" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F2" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C3" s="1">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="F3" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C4" s="1">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="F4" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C5" s="1">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F5" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C6" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E6" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F6" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C7" s="1">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="E7" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F7" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C8" s="1">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="E8" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F8" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C9" s="1">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E9" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="F9" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C10" s="1">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E10" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="F10" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C11" s="1">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E11" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F11" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C12" s="1">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E12" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C13" s="1">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E13" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="F13" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C14" s="1">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C15" s="1">
         <x:v>14</x:v>
       </x:c>
       <x:c r="D15" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E15" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="F15" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C16" s="1">
         <x:v>15</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F16" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B17" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C17" s="1">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="F17" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
       <x:c r="A18" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C18" s="1">
         <x:v>17</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E18" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B19" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C19" s="1">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E19" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F19" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B20" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C20" s="1">
         <x:v>19</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B21" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C21" s="1">
         <x:v>20</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B22" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C22" s="1">
         <x:v>21</x:v>
       </x:c>
       <x:c r="D22" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E22" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F22" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:6">
       <x:c r="A23" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B23" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C23" s="1">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F23" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:6">
       <x:c r="A24" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B24" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C24" s="1">
         <x:v>23</x:v>
       </x:c>
       <x:c r="D24" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="E24" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F24" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:6">
       <x:c r="A25" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B25" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C25" s="1">
         <x:v>24</x:v>
       </x:c>
       <x:c r="D25" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="E25" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F25" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:6">
       <x:c r="A26" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B26" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C26" s="1">
         <x:v>25</x:v>
       </x:c>
       <x:c r="D26" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E26" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F26" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:6">
       <x:c r="A27" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B27" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C27" s="1">
         <x:v>26</x:v>
       </x:c>
       <x:c r="D27" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E27" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="F27" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:6">
       <x:c r="A28" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B28" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C28" s="1">
         <x:v>27</x:v>
       </x:c>
       <x:c r="D28" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E28" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F28" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:6">
       <x:c r="A29" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B29" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C29" s="1">
         <x:v>28</x:v>
       </x:c>
       <x:c r="D29" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E29" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F29" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:6">
       <x:c r="A30" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B30" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C30" s="1">
         <x:v>29</x:v>
       </x:c>
       <x:c r="D30" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="E30" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="F30" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:6">
       <x:c r="A31" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B31" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C31" s="1">
         <x:v>30</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="F31" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:6">
       <x:c r="A32" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B32" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C32" s="1">
         <x:v>31</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F32" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:6">
       <x:c r="A33" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B33" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C33" s="1">
         <x:v>32</x:v>
       </x:c>
       <x:c r="D33" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E33" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="F33" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:6">
       <x:c r="A34" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B34" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C34" s="1">
         <x:v>33</x:v>
       </x:c>
       <x:c r="D34" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E34" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="F34" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:6">
       <x:c r="A35" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B35" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C35" s="1">
         <x:v>34</x:v>
       </x:c>
       <x:c r="D35" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E35" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="F35" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:6">
       <x:c r="A36" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B36" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C36" s="1">
         <x:v>35</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="F36" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:6">
       <x:c r="A37" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B37" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C37" s="1">
         <x:v>36</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E37" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="F37" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:6">
       <x:c r="A38" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B38" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C38" s="1">
         <x:v>37</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F38" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:6">
       <x:c r="A39" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B39" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C39" s="1">
         <x:v>38</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F39" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:6">
       <x:c r="A40" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B40" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C40" s="1">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="F40" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:6">
       <x:c r="A41" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B41" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C41" s="1">
         <x:v>40</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F41" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:6">
       <x:c r="A42" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B42" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C42" s="1">
         <x:v>41</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="F42" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:6">
       <x:c r="A43" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B43" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C43" s="1">
         <x:v>42</x:v>
       </x:c>
       <x:c r="D43" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E43" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F43" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:6">
       <x:c r="A44" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B44" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C44" s="1">
         <x:v>43</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F44" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:6">
       <x:c r="A45" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B45" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C45" s="1">
         <x:v>44</x:v>
       </x:c>
       <x:c r="D45" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E45" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F45" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:6">
       <x:c r="A46" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B46" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C46" s="1">
         <x:v>45</x:v>
       </x:c>
       <x:c r="D46" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E46" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="F46" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:6">
       <x:c r="A47" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B47" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C47" s="1">
         <x:v>46</x:v>
       </x:c>
       <x:c r="D47" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E47" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F47" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:6">
       <x:c r="A48" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B48" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C48" s="1">
         <x:v>47</x:v>
       </x:c>
       <x:c r="D48" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E48" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F48" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:6">
       <x:c r="A49" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B49" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C49" s="1">
         <x:v>48</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E49" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F49" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:6">
       <x:c r="A50" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B50" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C50" s="1">
         <x:v>49</x:v>
       </x:c>
       <x:c r="D50" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="E50" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F50" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:6">
       <x:c r="A51" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B51" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C51" s="1">
         <x:v>50</x:v>
       </x:c>
       <x:c r="D51" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E51" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F51" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:6">
       <x:c r="A52" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B52" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C52" s="1">
         <x:v>51</x:v>
       </x:c>
       <x:c r="D52" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E52" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="F52" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:6">
       <x:c r="A53" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B53" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C53" s="1">
         <x:v>52</x:v>
       </x:c>
       <x:c r="D53" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E53" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F53" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:6">
       <x:c r="A54" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B54" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C54" s="1">
         <x:v>53</x:v>
       </x:c>
       <x:c r="D54" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E54" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="F54" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:6">
       <x:c r="A55" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B55" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C55" s="1">
         <x:v>54</x:v>
       </x:c>
       <x:c r="D55" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E55" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F55" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:6">
       <x:c r="A56" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B56" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C56" s="1">
         <x:v>55</x:v>
       </x:c>
       <x:c r="D56" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E56" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="F56" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:6">
       <x:c r="A57" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B57" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C57" s="1">
         <x:v>56</x:v>
       </x:c>
       <x:c r="D57" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E57" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="F57" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:6">
       <x:c r="A58" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B58" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C58" s="1">
         <x:v>57</x:v>
       </x:c>
       <x:c r="D58" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="E58" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="F58" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:6">
       <x:c r="A59" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B59" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C59" s="1">
         <x:v>58</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E59" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="F59" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:6">
       <x:c r="A60" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B60" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C60" s="1">
         <x:v>59</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E60" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="F60" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:6">
       <x:c r="A61" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B61" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C61" s="1">
         <x:v>60</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="F61" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:6">
       <x:c r="A62" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B62" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C62" s="1">
         <x:v>61</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="F62" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:6">
       <x:c r="A63" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B63" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C63" s="1">
         <x:v>62</x:v>
       </x:c>
       <x:c r="D63" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E63" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="F63" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:6">
       <x:c r="A64" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B64" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C64" s="1">
         <x:v>63</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F64" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:6">
       <x:c r="A65" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B65" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C65" s="1">
         <x:v>64</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:6">
       <x:c r="A66" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B66" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C66" s="1">
         <x:v>65</x:v>
       </x:c>
       <x:c r="D66" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E66" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="F66" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:6">
       <x:c r="A67" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B67" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C67" s="1">
         <x:v>66</x:v>
       </x:c>
       <x:c r="D67" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E67" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F67" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:6">
       <x:c r="A68" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B68" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C68" s="1">
         <x:v>67</x:v>
       </x:c>
       <x:c r="D68" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E68" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F68" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:6">
       <x:c r="A69" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B69" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C69" s="1">
         <x:v>68</x:v>
       </x:c>
       <x:c r="D69" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E69" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="F69" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:6">
       <x:c r="A70" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B70" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C70" s="1">
         <x:v>69</x:v>
       </x:c>
       <x:c r="D70" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E70" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F70" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:6">
       <x:c r="A71" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B71" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C71" s="1">
         <x:v>70</x:v>
       </x:c>
       <x:c r="D71" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E71" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F71" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:6">
       <x:c r="A72" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B72" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C72" s="1">
         <x:v>71</x:v>
       </x:c>
       <x:c r="D72" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E72" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F72" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:6">
       <x:c r="A73" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B73" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C73" s="1">
         <x:v>72</x:v>
       </x:c>
       <x:c r="D73" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E73" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="F73" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:6">
       <x:c r="A74" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B74" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C74" s="1">
         <x:v>73</x:v>
       </x:c>
       <x:c r="D74" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E74" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="F74" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:6">
       <x:c r="A75" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B75" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C75" s="1">
         <x:v>74</x:v>
       </x:c>
       <x:c r="D75" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E75" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F75" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:6">
       <x:c r="A76" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B76" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C76" s="1">
         <x:v>75</x:v>
       </x:c>
       <x:c r="D76" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E76" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F76" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:6">
       <x:c r="A77" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B77" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C77" s="1">
         <x:v>76</x:v>
       </x:c>
       <x:c r="D77" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E77" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F77" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:6">
       <x:c r="A78" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B78" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C78" s="1">
         <x:v>77</x:v>
       </x:c>
       <x:c r="D78" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="E78" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="F78" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:6">
       <x:c r="A79" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B79" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C79" s="1">
         <x:v>78</x:v>
       </x:c>
       <x:c r="D79" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E79" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="F79" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:6">
       <x:c r="A80" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B80" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C80" s="1">
         <x:v>79</x:v>
       </x:c>
       <x:c r="D80" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E80" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="F80" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:6">
       <x:c r="A81" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B81" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C81" s="1">
         <x:v>80</x:v>
       </x:c>
       <x:c r="D81" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E81" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="F81" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:6">
       <x:c r="A82" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B82" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C82" s="1">
         <x:v>81</x:v>
       </x:c>
       <x:c r="D82" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="E82" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="F82" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:6">
       <x:c r="A83" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B83" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C83" s="1">
         <x:v>82</x:v>
       </x:c>
       <x:c r="D83" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E83" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="F83" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:6">
       <x:c r="A84" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B84" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C84" s="1">
         <x:v>83</x:v>
       </x:c>
       <x:c r="D84" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E84" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F84" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:6">
       <x:c r="A85" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B85" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C85" s="1">
         <x:v>84</x:v>
       </x:c>
       <x:c r="D85" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="E85" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F85" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:6">
       <x:c r="A86" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B86" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C86" s="1">
         <x:v>85</x:v>
       </x:c>
       <x:c r="D86" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E86" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F86" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:6">
       <x:c r="A87" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B87" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C87" s="1">
         <x:v>86</x:v>
       </x:c>
       <x:c r="D87" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="E87" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F87" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:6">
       <x:c r="A88" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B88" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C88" s="1">
         <x:v>87</x:v>
       </x:c>
       <x:c r="D88" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E88" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F88" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:6">
       <x:c r="A89" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B89" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C89" s="1">
         <x:v>88</x:v>
       </x:c>
       <x:c r="D89" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E89" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F89" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:6">
       <x:c r="A90" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B90" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C90" s="1">
         <x:v>89</x:v>
       </x:c>
       <x:c r="D90" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E90" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F90" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:6">
       <x:c r="A91" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B91" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C91" s="1">
         <x:v>90</x:v>
       </x:c>
       <x:c r="D91" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E91" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F91" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:6">
       <x:c r="A92" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B92" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C92" s="1">
         <x:v>91</x:v>
       </x:c>
       <x:c r="D92" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E92" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F92" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:6">
       <x:c r="A93" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B93" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C93" s="1">
         <x:v>92</x:v>
       </x:c>
       <x:c r="D93" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E93" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F93" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:6">
       <x:c r="A94" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B94" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C94" s="1">
         <x:v>93</x:v>
       </x:c>
       <x:c r="D94" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E94" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F94" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:6">
       <x:c r="A95" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B95" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C95" s="1">
         <x:v>94</x:v>
       </x:c>
       <x:c r="D95" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E95" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F95" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:6">
       <x:c r="A96" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B96" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C96" s="1">
         <x:v>95</x:v>
       </x:c>
       <x:c r="D96" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E96" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F96" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:6">
       <x:c r="A97" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B97" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C97" s="1">
         <x:v>96</x:v>
       </x:c>
       <x:c r="D97" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E97" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F97" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:6">
       <x:c r="A98" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B98" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C98" s="1">
         <x:v>97</x:v>
       </x:c>
       <x:c r="D98" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E98" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F98" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:6">
       <x:c r="A99" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B99" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C99" s="1">
         <x:v>98</x:v>
       </x:c>
       <x:c r="D99" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E99" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F99" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:6">
       <x:c r="A100" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B100" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C100" s="1">
         <x:v>99</x:v>
       </x:c>
       <x:c r="D100" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E100" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="F100" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:6">
       <x:c r="A101" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B101" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C101" s="1">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D101" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E101" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="F101" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>